--- a/biology/Mycologie/Jean_Paul_Vuillemin/Jean_Paul_Vuillemin.xlsx
+++ b/biology/Mycologie/Jean_Paul_Vuillemin/Jean_Paul_Vuillemin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Paul Vuillemin est un mycologue français, né le 13 février 1861 à Docelles et mort le 29 juin 1932 à Malzéville.
 Il étudie la médecine à l’université de Nancy où il obtient son titre de docteur en 1884. De 1895 à 1932, il est professeur d’histoire naturelle à la faculté de médecine de cette même université. Plusieurs taxons lui ont été dédiés comme le Vuilleminia comedens (Nees : Fr.) Maire. Vuillemin a travaillé sur les genres Spinalia et Zygorhynchus.
-Il fut membre de la Société des sciences de Nancy qu'il présida en 1899 et 1909[1].
-C'est lui qui forma les mots antibiose et antibiotique[2].
+Il fut membre de la Société des sciences de Nancy qu'il présida en 1899 et 1909.
+C'est lui qui forma les mots antibiose et antibiotique.
 </t>
         </is>
       </c>
@@ -516,18 +528,91 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Thèses
-De la valeur des caractères anatomiques au point de vue de la classification des végétaux : Tige des composées, 1884. Thèse de doctorat : Médecine : Faculté de médecine de Nancy : 1884. N° de thèse : 190.
-La Subordination des caractères de la feuille dans le phylum des "Anthyllis", 1892, VIII-344 p. Thèse de doctorat : Sciences naturelles : Faculté des sciences de Paris : 1892. N° de thèse : 746.
-Monographies
-Tige des composées : de la valeur des caractères anatomiques au point de vue de la classification des végétaux, Paris, J.-B. Baillière, 1884, 258 p. (lire en ligne).
+          <t>Thèses</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>De la valeur des caractères anatomiques au point de vue de la classification des végétaux : Tige des composées, 1884. Thèse de doctorat : Médecine : Faculté de médecine de Nancy : 1884. N° de thèse : 190.
+La Subordination des caractères de la feuille dans le phylum des "Anthyllis", 1892, VIII-344 p. Thèse de doctorat : Sciences naturelles : Faculté des sciences de Paris : 1892. N° de thèse : 746.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean_Paul_Vuillemin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Paul_Vuillemin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Monographies</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tige des composées : de la valeur des caractères anatomiques au point de vue de la classification des végétaux, Paris, J.-B. Baillière, 1884, 258 p. (lire en ligne).
 La Biologie végétale, Paris, J.-B. Baillière, coll. « Bibliothèque scientifique contemporaine », 1888, 380 p. (lire en ligne).
 Les Champignons : essai de classification, Paris, O. Doin, coll. « Bibliothèque de botanique cryptogamique », 1912, 425 p. (lire en ligne).
 Les Anomalies végétales, leur cause biologique, Paris, Presses universitaires de France, 1926, XX-359 p.
 Les Animaux infectieux, Paris, P. Lechevalier, coll. « Encyclopédie biologique », 1929, 142 p. (lire en ligne).
-Les Champignons parasites et les mycoses de l'homme, Paris, P. Lechevalier, coll. « Encyclopédie mycologique », 1931, 292 p. (lire en ligne).
-Sélection d'articles
-1893 : "Remarques sur les affinités des Basidiomycètes", Journal de Botanique 7 (9) : 164-174.
+Les Champignons parasites et les mycoses de l'homme, Paris, P. Lechevalier, coll. « Encyclopédie mycologique », 1931, 292 p. (lire en ligne).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean_Paul_Vuillemin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Paul_Vuillemin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sélection d'articles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1893 : "Remarques sur les affinités des Basidiomycètes", Journal de Botanique 7 (9) : 164-174.
 1918 : "Sur les Mortierella des groupes polycephala et nigrescens", Bulletin de la Société mycologique de France, 34 : 41-46.</t>
         </is>
       </c>
